--- a/K9HZ_LPF_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Control_Board_BOM_V1.00_01-14-24.xlsx
+++ b/K9HZ_LPF_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Control_Board_BOM_V1.00_01-14-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_LPF_Module\K9HZ_LPF_V1.00_BOMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\K9HZ\K9HZ_LPF_Module\K9HZ_LPF_V1.00_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB151DF5-9EB0-47A5-8145-6D358FBA228B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98340E9B-CA91-4CBB-959D-9CB52527BA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="8" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="193">
   <si>
     <t>Qty</t>
   </si>
@@ -746,6 +746,9 @@
   </si>
   <si>
     <t>R17, R22</t>
+  </si>
+  <si>
+    <t>Tadya Electronics</t>
   </si>
 </sst>
 </file>
@@ -1681,7 +1684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DB5B33-402C-458D-98E1-C19762AA7CB2}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -2127,8 +2130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2159,7 +2162,7 @@
         <v>65</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>66</v>
+        <v>192</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>67</v>
@@ -2814,7 +2817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDA2ABC-0813-474E-AEBD-F41F9497E75F}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -3702,7 +3705,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
